--- a/01 计划阶段/01 项目信息表/项目信息表 - 示例.xlsx
+++ b/01 计划阶段/01 项目信息表/项目信息表 - 示例.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/dev/workspace/software-engineering-document/01 计划阶段/01 项目信息表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79FBEB3-5C90-4044-8D96-F33A73CF676B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4802A5E2-17E7-D144-B653-11CAD781F433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="24040" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>项目基本信息表</t>
   </si>
@@ -87,10 +87,6 @@
     <t>文档</t>
   </si>
   <si>
-    <t>陈XX</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>XXX</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -99,47 +95,47 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>可视化监控系统</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>可视化监控系统安装程序</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>《可视化监控系统建设需求规格说明书》</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>《可视化监控系统用户界面设计报告》</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>《可视化监控系统数据库设计报告》</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>《可视化监控系统数据字典》</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>《可视化监控系统概要设计说明书》</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>《可视化监控系统详细设计》</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>《可视化监控系统测试报告》</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>《可视化监控系统培训文档》</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>《可视化监控系统用户手册》</t>
+    <t>XXX系统安装程序</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>《XXX需求规格说明书》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>《XXX系统用户界面设计报告》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>《XXX系统数据库设计报告》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>《XXX系统数据字典》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>《XXX系统概要设计说明书》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>《XXX系统详细设计》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>《XXX系统测试报告》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>《XXX系统培训文档》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>《XXX系统用户手册》</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX系统</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -238,26 +234,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,64 +605,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" ht="24" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="24" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="24" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>5</v>
@@ -675,65 +675,65 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="24" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="10">
+      <c r="C5" s="7">
         <v>43831</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="10">
+      <c r="G5" s="7">
         <v>44562</v>
       </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" ht="24" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="24" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="24" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="17">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="24" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -745,7 +745,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="24" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -763,168 +763,199 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="24" customHeight="1">
       <c r="A11" s="3">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="24" customHeight="1">
       <c r="A12" s="3">
         <v>2</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="B12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" ht="24" customHeight="1">
       <c r="A13" s="3">
         <v>3</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="B13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" ht="24" customHeight="1">
       <c r="A14" s="3">
         <v>4</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="B14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" ht="24" customHeight="1">
       <c r="A15" s="3">
         <v>5</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
       <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" ht="24" customHeight="1">
       <c r="A16" s="3">
         <v>6</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="B16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
       <c r="F16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" ht="24" customHeight="1">
       <c r="A17" s="3">
         <v>7</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" ht="24" customHeight="1">
       <c r="A18" s="3">
         <v>8</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="B18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" ht="24" customHeight="1">
       <c r="A19" s="3">
         <v>9</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="B19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" ht="24" customHeight="1">
       <c r="A20" s="3">
         <v>10</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="B20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
@@ -933,37 +964,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="G19:H19"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
